--- a/biology/Botanique/Begonia_prismatocarpa/Begonia_prismatocarpa.xlsx
+++ b/biology/Botanique/Begonia_prismatocarpa/Begonia_prismatocarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia prismatocarpa est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire d' Afrique. L'espèce fait partie de la section Loasibegonia. Elle a été décrite en 1862 par William Jackson Hooker (1785-1865). L'épithète spécifique prismatocarpa signifie « à fruit en forme de prisme ».
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,10 +551,12 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire des pays suivants : Cameroun ; Côte d'Ivoire ; Guinée Équatoriale[2].
-Assez rare, la sous-espèce Begonia prismatocarpa subsp. delobata Sosef est endémique du Cameroun, où elle a été observée sur six sites dans la Région du Sud-Ouest[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire des pays suivants : Cameroun ; Côte d'Ivoire ; Guinée Équatoriale.
+Assez rare, la sous-espèce Begonia prismatocarpa subsp. delobata Sosef est endémique du Cameroun, où elle a été observée sur six sites dans la Région du Sud-Ouest.
 </t>
         </is>
       </c>
@@ -569,9 +585,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (22 février 2017)[4], World Checklist of Selected Plant Families (WCSP)  (22 février 2017)[5] et Tropicos                                           (22 février 2017)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (22 février 2017), World Checklist of Selected Plant Families (WCSP)  (22 février 2017) et Tropicos                                           (22 février 2017) :
 sous-espèce Begonia prismatocarpa subsp. delobata Sosef (1994)
 sous-espèce Begonia prismatocarpa subsp. petraea (A.Chev.) Sosef (1994)
 sous-espèce Begonia prismatocarpa subsp. prismatocarpa</t>
